--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1990316.293824565</v>
+        <v>1988059.271915482</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>207.179193920011</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>317.7824998350705</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15.67129869336565</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186275</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43.3772167958215</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>13.53541314334531</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850742</v>
+        <v>160.3751909263516</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.149833621077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>139.6528551206848</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>83.47425054667264</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>66.76073360401563</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>54.79134020099016</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.96411613815107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>103.1340411809966</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.4425172951275</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>18.26879610203849</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>83.85990871385309</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>155.0462988210293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>164.9102792253191</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.57748634140356</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>69.97760604176419</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>253.7467018586173</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>194.4650050997975</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.25588147840126</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,10 +3244,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>205.0640766925558</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935315</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102223</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43.32742032990154</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581636</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164158</v>
+        <v>87.87589738164179</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430361</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877634</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172071</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354222</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481853</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006314</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.2422933976587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633438</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124498</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.883827626212</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>785.9213106858008</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>785.9213106858008</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>785.9213106858008</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>374.9354058961932</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4373,7 +4373,7 @@
         <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.883827626212</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>69.77257646012774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1061.921889775366</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>676.1336371771213</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>265.1477323875137</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>251.2243283261046</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2683.476956529994</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2352.414069186424</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1999.645413916309</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.5573625732399</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2105.214675620634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,19 +5042,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.9312815832559</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C13" t="n">
-        <v>329.995098655349</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D13" t="n">
-        <v>179.8784592430133</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>179.8784592430133</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8784592430133</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>179.8784592430133</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>179.8784592430133</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570258</v>
+        <v>841.8380697298395</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570258</v>
+        <v>613.8485188318222</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.5797464134956</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,10 +5261,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3629.948228594053</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>360.5895482553304</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C16" t="n">
-        <v>360.5895482553304</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5895482553304</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1709.312793849721</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783398</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413792</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433618</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y16" t="n">
-        <v>360.5895482553304</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,46 +5513,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5616,28 +5616,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501055</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
         <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208116</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838508</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858335</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786342</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,25 +5756,25 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195856</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5853,28 +5853,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423032</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423032</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,7 +5908,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442061</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104702</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626698</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208114</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838507</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858334</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423032</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,10 +5972,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5990,31 +5990,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M23" t="n">
         <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
         <v>4461.783306331037</v>
@@ -6023,16 +6023,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374727</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374727</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374727</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374727</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104702</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1789.767426483168</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1568.000811052694</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1278.897944178338</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.213455972451</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W25" t="n">
-        <v>734.79628593549</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X25" t="n">
-        <v>506.8067350374727</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374727</v>
+        <v>399.0634049978495</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1034.340101969334</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1732.058578925877</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>556.371005353728</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C28" t="n">
-        <v>556.371005353728</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D28" t="n">
-        <v>556.371005353728</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1916.366207173993</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1724.680323000819</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1502.913707570345</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1502.913707570345</v>
+        <v>1382.376058711347</v>
       </c>
       <c r="V28" t="n">
-        <v>1248.229219364458</v>
+        <v>1127.69157050546</v>
       </c>
       <c r="W28" t="n">
-        <v>958.8120493274978</v>
+        <v>838.2744004684992</v>
       </c>
       <c r="X28" t="n">
-        <v>958.8120493274978</v>
+        <v>838.2744004684992</v>
       </c>
       <c r="Y28" t="n">
-        <v>738.0194701839678</v>
+        <v>838.2744004684992</v>
       </c>
     </row>
     <row r="29">
@@ -6455,31 +6455,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,7 +6543,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.7782212305366</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305366</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D31" t="n">
         <v>241.7782212305366</v>
@@ -6619,7 +6619,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1286.581166643866</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783405</v>
+        <v>1031.896678437979</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413798</v>
+        <v>742.479508401019</v>
       </c>
       <c r="X31" t="n">
-        <v>423.4266860607763</v>
+        <v>742.479508401019</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.4266860607763</v>
+        <v>742.479508401019</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,49 +6701,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025902</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423039</v>
+        <v>508.0400813400981</v>
       </c>
       <c r="C34" t="n">
-        <v>260.9043113423039</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D34" t="n">
-        <v>260.9043113423039</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E34" t="n">
-        <v>112.9912177599109</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F34" t="n">
-        <v>112.9912177599109</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208121</v>
+        <v>956.8222113816456</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838514</v>
+        <v>956.8222113816456</v>
       </c>
       <c r="X34" t="n">
-        <v>481.696890485834</v>
+        <v>728.8326604836283</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423039</v>
+        <v>508.0400813400981</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6938,22 +6938,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6962,19 +6962,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7017,37 +7017,37 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>454.0415329315131</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>286.1722745373492</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4072034970446</v>
       </c>
       <c r="E37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308517</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152497</v>
+        <v>346.7622353152493</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992675</v>
+        <v>664.3677264992671</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834338</v>
@@ -7108,37 +7108,37 @@
         <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.39982593166</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988877</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280148</v>
+        <v>1875.945475280147</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640717</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1464.626824743986</v>
+        <v>1464.626824743985</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.590882403373</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="V37" t="n">
-        <v>922.9733187312297</v>
+        <v>922.9733187312277</v>
       </c>
       <c r="W37" t="n">
-        <v>634.6230732280122</v>
+        <v>634.6230732280098</v>
       </c>
       <c r="X37" t="n">
-        <v>407.7004468637381</v>
+        <v>634.6230732280098</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.1425747448909</v>
+        <v>634.6230732280098</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686761</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7266,37 +7266,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
         <v>463.8981507430897</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>956.4397908460646</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7439,16 +7439,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430889</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932518</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160441</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819752</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,19 +7591,19 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
         <v>1276.596863849072</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036709</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>320.5615857958363</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686776</v>
+        <v>654.3809594856828</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522032</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416713</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036713</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504495</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493993</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>172.4995987156024</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>342.3170758598136</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,19 +9404,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>172.4995987156016</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>219.3344627260169</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277304</v>
+        <v>295.4822118493993</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>251.1867816683982</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>176.2173930448442</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>63.01588120402465</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>398.2509825792558</v>
       </c>
       <c r="N32" t="n">
-        <v>246.4545694808461</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>76.45227440777376</v>
       </c>
       <c r="P35" t="n">
-        <v>67.53663776704383</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>201.9664098701107</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>36.48628322062262</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>12.87816986316545</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>219.7622647325754</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>164.757609075179</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.6205372139437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.9321526700474</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>183.3889571555944</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.14213605696725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3466769161739</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>134.7247446382417</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>24.78568136090803</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.9321526700474</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>24.85874610612285</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.35466632864377</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>216.2342321638487</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.46513634699556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>31.24465028923967</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>148.769926780627</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>47.07356663127216</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102221</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298066</v>
+        <v>104.2317973999053</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581634</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345255</v>
+        <v>144.3647927345257</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706225</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.698759625915</v>
+        <v>143.6987596259152</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143235</v>
+        <v>95.29616512143255</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006316</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.2861046660303</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871081.4201965239</v>
+        <v>871081.4201965238</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871081.4201965238</v>
+        <v>871081.4201965237</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871081.4201965238</v>
+        <v>871081.4201965237</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871081.4201965238</v>
+        <v>871081.4201965237</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871731.1150503834</v>
+        <v>871731.1150503833</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
-      </c>
       <c r="E2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974271</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="G2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974271</v>
       </c>
       <c r="I2" t="n">
         <v>536060.4122974273</v>
@@ -26338,22 +26338,22 @@
         <v>536060.4122974272</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974271</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="L2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="M2" t="n">
-        <v>536468.3602289195</v>
+        <v>536468.36022892</v>
       </c>
       <c r="N2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583918</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>554203.1946583916</v>
-      </c>
-      <c r="P2" t="n">
-        <v>554203.1946583918</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696694</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414959</v>
+        <v>36735.10506414976</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918986</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26445,16 +26445,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811463</v>
+        <v>18496.05294811457</v>
       </c>
       <c r="N4" t="n">
+        <v>33605.65329740894</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740898</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740897</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26491,16 +26491,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="M5" t="n">
-        <v>96472.31657955464</v>
+        <v>96472.31657955462</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766908</v>
+        <v>-301972.4494766906</v>
       </c>
       <c r="C6" t="n">
+        <v>287995.4297378536</v>
+      </c>
+      <c r="D6" t="n">
         <v>287995.4297378535</v>
       </c>
-      <c r="D6" t="n">
-        <v>287995.4297378536</v>
-      </c>
       <c r="E6" t="n">
-        <v>-305849.0122688829</v>
+        <v>-305916.2077591089</v>
       </c>
       <c r="F6" t="n">
-        <v>421528.4017245239</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="G6" t="n">
-        <v>421528.401724524</v>
+        <v>421461.2062342978</v>
       </c>
       <c r="H6" t="n">
-        <v>421528.4017245237</v>
+        <v>421461.2062342977</v>
       </c>
       <c r="I6" t="n">
-        <v>421528.4017245237</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="J6" t="n">
-        <v>245105.1825319304</v>
+        <v>245037.9870417049</v>
       </c>
       <c r="K6" t="n">
-        <v>421528.4017245235</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="L6" t="n">
-        <v>421528.4017245237</v>
+        <v>421461.2062342977</v>
       </c>
       <c r="M6" t="n">
-        <v>291012.6716315809</v>
+        <v>290946.9870596206</v>
       </c>
       <c r="N6" t="n">
-        <v>383529.7652827311</v>
+        <v>383529.7652827308</v>
       </c>
       <c r="O6" t="n">
-        <v>420264.8703468806</v>
+        <v>420264.8703468807</v>
       </c>
       <c r="P6" t="n">
         <v>420264.8703468805</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018679</v>
+        <v>45.91888133018699</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>175.5546477434695</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>96.00167018572449</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>151.5755224052622</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047548</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>280.5455559685357</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>237.688754364944</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339484</v>
+        <v>209.3559097521175</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551404</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>78.93179823140994</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.370970955225845e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.359410990644273e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.217746946403958e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405759</v>
+        <v>1.056255288405536</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435293</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417313</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>571.2615849349741</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265651</v>
@@ -35890,22 +35890,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>894.6189112727249</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306613</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36124,19 +36124,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>628.0897131079336</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>771.6362981389282</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636241</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36358,13 +36358,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200623</v>
+        <v>751.0723262417313</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248955</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>588.3780682237987</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>631.8075074371761</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>518.6059955963566</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>937.1720984094826</v>
       </c>
       <c r="N32" t="n">
-        <v>798.7564048937573</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>584.5052752959929</v>
       </c>
       <c r="P35" t="n">
-        <v>466.2986239864155</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147195</v>
+        <v>46.63467190147176</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327253</v>
+        <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818895</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559458</v>
+        <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110455</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.013326433516</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629939</v>
+        <v>79.45049382629919</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255113</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>509.6908852710018</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>227.2732841893352</v>
       </c>
       <c r="K44" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
